--- a/projection_results_AIP_New_Hires.xlsx
+++ b/projection_results_AIP_New_Hires.xlsx
@@ -528,49 +528,49 @@
         <v>9426</v>
       </c>
       <c r="C2" t="n">
-        <v>9405</v>
+        <v>9401</v>
       </c>
       <c r="D2" t="n">
-        <v>8409</v>
+        <v>8311</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8940988835725678</v>
+        <v>0.884054887777896</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8921069382558879</v>
+        <v>0.881710163377891</v>
       </c>
       <c r="G2" t="n">
-        <v>0.100024973242954</v>
+        <v>0.1004018770304416</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08923297262889879</v>
+        <v>0.08852535539995757</v>
       </c>
       <c r="I2" t="n">
-        <v>42981121.86201</v>
+        <v>42616319.262861</v>
       </c>
       <c r="J2" t="n">
-        <v>14992003.444549</v>
+        <v>14844035.3774605</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>14992003.444549</v>
+        <v>14844035.3774605</v>
       </c>
       <c r="M2" t="n">
-        <v>57973125.306559</v>
+        <v>57460354.6403215</v>
       </c>
       <c r="N2" t="n">
-        <v>798598224.4913001</v>
+        <v>798582052.9413</v>
       </c>
       <c r="O2" t="n">
-        <v>780898417.4873</v>
+        <v>780882245.9373</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01877289854244138</v>
+        <v>0.01858799020437242</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01919840418269617</v>
+        <v>0.01900931344602805</v>
       </c>
     </row>
     <row r="3">
@@ -581,49 +581,49 @@
         <v>9613</v>
       </c>
       <c r="C3" t="n">
-        <v>9585</v>
+        <v>9592</v>
       </c>
       <c r="D3" t="n">
-        <v>8568</v>
+        <v>8469</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8938967136150234</v>
+        <v>0.8829232693911593</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8912930406740872</v>
+        <v>0.8809944866326849</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09623832866479924</v>
+        <v>0.09646357303105442</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08577655258504109</v>
+        <v>0.08498387600124831</v>
       </c>
       <c r="I3" t="n">
-        <v>45572734.1441614</v>
+        <v>45080697.01096167</v>
       </c>
       <c r="J3" t="n">
-        <v>16363248.41171235</v>
+        <v>16186053.48021406</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>16363248.41171235</v>
+        <v>16186053.48021406</v>
       </c>
       <c r="M3" t="n">
-        <v>61935982.55587376</v>
+        <v>61266750.49117575</v>
       </c>
       <c r="N3" t="n">
-        <v>845457355.0452089</v>
+        <v>844996599.4690611</v>
       </c>
       <c r="O3" t="n">
-        <v>827861919.0321851</v>
+        <v>827401163.456037</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01935431552409566</v>
+        <v>0.01915516996208539</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01976567352058162</v>
+        <v>0.01956252202088436</v>
       </c>
     </row>
     <row r="4">
@@ -634,49 +634,49 @@
         <v>9804</v>
       </c>
       <c r="C4" t="n">
-        <v>9775</v>
+        <v>9777</v>
       </c>
       <c r="D4" t="n">
-        <v>8741</v>
+        <v>8666</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8942199488491048</v>
+        <v>0.8863659609287102</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8915748674010608</v>
+        <v>0.8839249286005711</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09395378103191854</v>
+        <v>0.09398338333717977</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08376682986536108</v>
+        <v>0.08307425540595674</v>
       </c>
       <c r="I4" t="n">
-        <v>48398602.05944249</v>
+        <v>48078757.09076811</v>
       </c>
       <c r="J4" t="n">
-        <v>17695302.37299157</v>
+        <v>17612347.33775678</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>17695302.37299157</v>
+        <v>17612347.33775678</v>
       </c>
       <c r="M4" t="n">
-        <v>66093904.43243406</v>
+        <v>65691104.42852489</v>
       </c>
       <c r="N4" t="n">
-        <v>889873745.8979067</v>
+        <v>891229868.3884727</v>
       </c>
       <c r="O4" t="n">
-        <v>872309830.1033301</v>
+        <v>873665952.5938962</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01988518309992001</v>
+        <v>0.01976184591928403</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.02028557028973921</v>
+        <v>0.0201591320864297</v>
       </c>
     </row>
     <row r="5">
@@ -687,49 +687,49 @@
         <v>9999</v>
       </c>
       <c r="C5" t="n">
-        <v>9968</v>
+        <v>9972</v>
       </c>
       <c r="D5" t="n">
-        <v>8910</v>
+        <v>8833</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8938603531300161</v>
+        <v>0.8857801845166466</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8910891089108911</v>
+        <v>0.8833883388338833</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09152749719416386</v>
+        <v>0.09144571493263898</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08155915591559156</v>
+        <v>0.08078207820782078</v>
       </c>
       <c r="I5" t="n">
-        <v>51099891.69682898</v>
+        <v>50775057.45786561</v>
       </c>
       <c r="J5" t="n">
-        <v>19027147.66598618</v>
+        <v>18958537.25250198</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>19027147.66598618</v>
+        <v>18958537.25250198</v>
       </c>
       <c r="M5" t="n">
-        <v>70127039.36281516</v>
+        <v>69733594.71036758</v>
       </c>
       <c r="N5" t="n">
-        <v>934696334.2727933</v>
+        <v>936359078.2269156</v>
       </c>
       <c r="O5" t="n">
-        <v>917095111.9875388</v>
+        <v>918757855.9416611</v>
       </c>
       <c r="P5" t="n">
-        <v>0.02035650185874492</v>
+        <v>0.02024708009282268</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.02074719123161646</v>
+        <v>0.02063496614466587</v>
       </c>
     </row>
     <row r="6">
@@ -740,49 +740,49 @@
         <v>10198</v>
       </c>
       <c r="C6" t="n">
-        <v>10165</v>
+        <v>10166</v>
       </c>
       <c r="D6" t="n">
-        <v>9102</v>
+        <v>9018</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8954254795868175</v>
+        <v>0.8870745622663782</v>
       </c>
       <c r="F6" t="n">
-        <v>0.892527946656207</v>
+        <v>0.8842910374583252</v>
       </c>
       <c r="G6" t="n">
-        <v>0.08828059767084155</v>
+        <v>0.08842980705256154</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07879290056873897</v>
+        <v>0.07819768582074915</v>
       </c>
       <c r="I6" t="n">
-        <v>53667575.40152812</v>
+        <v>53342426.2551169</v>
       </c>
       <c r="J6" t="n">
-        <v>20425018.82031985</v>
+        <v>20351365.58954056</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>20425018.82031985</v>
+        <v>20351365.58954056</v>
       </c>
       <c r="M6" t="n">
-        <v>74092594.22184797</v>
+        <v>73693791.84465745</v>
       </c>
       <c r="N6" t="n">
-        <v>980070779.9517738</v>
+        <v>982369991.8607023</v>
       </c>
       <c r="O6" t="n">
-        <v>962363233.7516423</v>
+        <v>964662445.6605709</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0208403507564269</v>
+        <v>0.02071659940568129</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.02122381456811862</v>
+        <v>0.02109687764988568</v>
       </c>
     </row>
   </sheetData>

--- a/projection_results_AIP_New_Hires.xlsx
+++ b/projection_results_AIP_New_Hires.xlsx
@@ -525,52 +525,52 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9426</v>
+        <v>9478</v>
       </c>
       <c r="C2" t="n">
-        <v>9401</v>
+        <v>9447</v>
       </c>
       <c r="D2" t="n">
-        <v>8311</v>
+        <v>8374</v>
       </c>
       <c r="E2" t="n">
-        <v>0.884054887777896</v>
+        <v>0.8864189689848629</v>
       </c>
       <c r="F2" t="n">
-        <v>0.881710163377891</v>
+        <v>0.8835197299008229</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1004018770304416</v>
+        <v>0.09681583147536164</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08852535539995757</v>
+        <v>0.0855386972752351</v>
       </c>
       <c r="I2" t="n">
-        <v>42616319.262861</v>
+        <v>41174860.32985197</v>
       </c>
       <c r="J2" t="n">
-        <v>14844035.3774605</v>
+        <v>14390491.49810799</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>14844035.3774605</v>
+        <v>14390491.49810799</v>
       </c>
       <c r="M2" t="n">
-        <v>57460354.6403215</v>
+        <v>55565351.82795996</v>
       </c>
       <c r="N2" t="n">
-        <v>798582052.9413</v>
+        <v>799515284.2372</v>
       </c>
       <c r="O2" t="n">
-        <v>780882245.9373</v>
+        <v>781815477.2332001</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01858799020437242</v>
+        <v>0.01799901988345056</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01900931344602805</v>
+        <v>0.01840650628845966</v>
       </c>
     </row>
     <row r="3">
@@ -578,52 +578,52 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9613</v>
+        <v>9666</v>
       </c>
       <c r="C3" t="n">
-        <v>9592</v>
+        <v>9645</v>
       </c>
       <c r="D3" t="n">
-        <v>8469</v>
+        <v>8563</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8829232693911593</v>
+        <v>0.887817522032141</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8809944866326849</v>
+        <v>0.8858886819780675</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09646357303105442</v>
+        <v>0.09539772302800158</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08498387600124831</v>
+        <v>0.08451176311698505</v>
       </c>
       <c r="I3" t="n">
-        <v>45080697.01096167</v>
+        <v>43125250.93561375</v>
       </c>
       <c r="J3" t="n">
-        <v>16186053.48021406</v>
+        <v>15095706.59566786</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>16186053.48021406</v>
+        <v>15095706.59566786</v>
       </c>
       <c r="M3" t="n">
-        <v>61266750.49117575</v>
+        <v>58220957.53128161</v>
       </c>
       <c r="N3" t="n">
-        <v>844996599.4690611</v>
+        <v>837887628.1232281</v>
       </c>
       <c r="O3" t="n">
-        <v>827401163.456037</v>
+        <v>820407452.099158</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01915516996208539</v>
+        <v>0.01801638559752995</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01956252202088436</v>
+        <v>0.01840025533293586</v>
       </c>
     </row>
     <row r="4">
@@ -631,52 +631,52 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9804</v>
+        <v>9858</v>
       </c>
       <c r="C4" t="n">
-        <v>9777</v>
+        <v>9842</v>
       </c>
       <c r="D4" t="n">
-        <v>8666</v>
+        <v>8755</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8863659609287102</v>
+        <v>0.889554968502337</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8839249286005711</v>
+        <v>0.8881111787380808</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09398338333717977</v>
+        <v>0.09419949378696643</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08307425540595674</v>
+        <v>0.08365962346367327</v>
       </c>
       <c r="I4" t="n">
-        <v>48078757.09076811</v>
+        <v>45180622.83051215</v>
       </c>
       <c r="J4" t="n">
-        <v>17612347.33775678</v>
+        <v>15803405.31809689</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>17612347.33775678</v>
+        <v>15803405.31809689</v>
       </c>
       <c r="M4" t="n">
-        <v>65691104.42852489</v>
+        <v>60984028.14860904</v>
       </c>
       <c r="N4" t="n">
-        <v>891229868.3884727</v>
+        <v>875120136.5024129</v>
       </c>
       <c r="O4" t="n">
-        <v>873665952.5938962</v>
+        <v>857671188.4964591</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01976184591928403</v>
+        <v>0.01805855523020903</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0201591320864297</v>
+        <v>0.01842594869696049</v>
       </c>
     </row>
     <row r="5">
@@ -684,52 +684,52 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9999</v>
+        <v>10054</v>
       </c>
       <c r="C5" t="n">
-        <v>9972</v>
+        <v>10024</v>
       </c>
       <c r="D5" t="n">
-        <v>8833</v>
+        <v>8885</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8857801845166466</v>
+        <v>0.8863727055067837</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8833883388338833</v>
+        <v>0.8837278695046747</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09144571493263898</v>
+        <v>0.09334574158803877</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08078207820782078</v>
+        <v>0.08249223334093142</v>
       </c>
       <c r="I5" t="n">
-        <v>50775057.45786561</v>
+        <v>47130445.73264639</v>
       </c>
       <c r="J5" t="n">
-        <v>18958537.25250198</v>
+        <v>16445176.013788</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>18958537.25250198</v>
+        <v>16445176.013788</v>
       </c>
       <c r="M5" t="n">
-        <v>69733594.71036758</v>
+        <v>63575621.7464344</v>
       </c>
       <c r="N5" t="n">
-        <v>936359078.2269156</v>
+        <v>913371970.5379409</v>
       </c>
       <c r="O5" t="n">
-        <v>918757855.9416611</v>
+        <v>895885865.0749676</v>
       </c>
       <c r="P5" t="n">
-        <v>0.02024708009282268</v>
+        <v>0.01800490549770476</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.02063496614466587</v>
+        <v>0.01835632936614294</v>
       </c>
     </row>
     <row r="6">
@@ -737,52 +737,52 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10198</v>
+        <v>10254</v>
       </c>
       <c r="C6" t="n">
-        <v>10166</v>
+        <v>10235</v>
       </c>
       <c r="D6" t="n">
-        <v>9018</v>
+        <v>9103</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8870745622663782</v>
+        <v>0.8893991206643869</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8842910374583252</v>
+        <v>0.8877511215135557</v>
       </c>
       <c r="G6" t="n">
-        <v>0.08842980705256154</v>
+        <v>0.09209148262974684</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07819768582074915</v>
+        <v>0.08175431698640388</v>
       </c>
       <c r="I6" t="n">
-        <v>53342426.2551169</v>
+        <v>49481204.14574344</v>
       </c>
       <c r="J6" t="n">
-        <v>20351365.58954056</v>
+        <v>17249441.50190688</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>20351365.58954056</v>
+        <v>17249441.50190688</v>
       </c>
       <c r="M6" t="n">
-        <v>73693791.84465745</v>
+        <v>66730645.64765032</v>
       </c>
       <c r="N6" t="n">
-        <v>982369991.8607023</v>
+        <v>954978001.9095395</v>
       </c>
       <c r="O6" t="n">
-        <v>964662445.6605709</v>
+        <v>937386176.0363579</v>
       </c>
       <c r="P6" t="n">
-        <v>0.02071659940568129</v>
+        <v>0.01806265847738432</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.02109687764988568</v>
+        <v>0.01840163845262194</v>
       </c>
     </row>
   </sheetData>

--- a/projection_results_AIP_New_Hires.xlsx
+++ b/projection_results_AIP_New_Hires.xlsx
@@ -528,49 +528,49 @@
         <v>9478</v>
       </c>
       <c r="C2" t="n">
-        <v>9447</v>
+        <v>9444</v>
       </c>
       <c r="D2" t="n">
-        <v>8374</v>
+        <v>8346</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8864189689848629</v>
+        <v>0.8837357052096569</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8835197299008229</v>
+        <v>0.8805655201519308</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09681583147536164</v>
+        <v>0.0970076441535767</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0855386972752351</v>
+        <v>0.08542158663280766</v>
       </c>
       <c r="I2" t="n">
-        <v>41174860.32985197</v>
+        <v>41076824.4099903</v>
       </c>
       <c r="J2" t="n">
-        <v>14390491.49810799</v>
+        <v>14343580.15165115</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>14390491.49810799</v>
+        <v>14343580.15165115</v>
       </c>
       <c r="M2" t="n">
-        <v>55565351.82795996</v>
+        <v>55420404.56164145</v>
       </c>
       <c r="N2" t="n">
-        <v>799515284.2372</v>
+        <v>798913812.9572001</v>
       </c>
       <c r="O2" t="n">
-        <v>781815477.2332001</v>
+        <v>781214005.9532001</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01799901988345056</v>
+        <v>0.01795385174097568</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01840650628845966</v>
+        <v>0.01836062851196554</v>
       </c>
     </row>
     <row r="3">
@@ -581,49 +581,49 @@
         <v>9666</v>
       </c>
       <c r="C3" t="n">
-        <v>9645</v>
+        <v>9640</v>
       </c>
       <c r="D3" t="n">
-        <v>8563</v>
+        <v>8568</v>
       </c>
       <c r="E3" t="n">
-        <v>0.887817522032141</v>
+        <v>0.8887966804979253</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8858886819780675</v>
+        <v>0.8864059590316573</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09539772302800158</v>
+        <v>0.09542172038036506</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08451176311698505</v>
+        <v>0.08458238156620813</v>
       </c>
       <c r="I3" t="n">
-        <v>43125250.93561375</v>
+        <v>43142786.81432747</v>
       </c>
       <c r="J3" t="n">
-        <v>15095706.59566786</v>
+        <v>15106644.34690293</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>15095706.59566786</v>
+        <v>15106644.34690293</v>
       </c>
       <c r="M3" t="n">
-        <v>58220957.53128161</v>
+        <v>58249431.1612304</v>
       </c>
       <c r="N3" t="n">
-        <v>837887628.1232281</v>
+        <v>837045574.001528</v>
       </c>
       <c r="O3" t="n">
-        <v>820407452.099158</v>
+        <v>819565397.977458</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01801638559752995</v>
+        <v>0.01804757687766635</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01840025533293586</v>
+        <v>0.01843250628221183</v>
       </c>
     </row>
     <row r="4">
@@ -634,49 +634,49 @@
         <v>9858</v>
       </c>
       <c r="C4" t="n">
-        <v>9842</v>
+        <v>9845</v>
       </c>
       <c r="D4" t="n">
-        <v>8755</v>
+        <v>8756</v>
       </c>
       <c r="E4" t="n">
-        <v>0.889554968502337</v>
+        <v>0.8893854748603351</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8881111787380808</v>
+        <v>0.888212619192534</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09419949378696643</v>
+        <v>0.09412919338671218</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08365962346367327</v>
+        <v>0.08360673740049218</v>
       </c>
       <c r="I4" t="n">
-        <v>45180622.83051215</v>
+        <v>45118047.21266638</v>
       </c>
       <c r="J4" t="n">
-        <v>15803405.31809689</v>
+        <v>15774352.41540857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>15803405.31809689</v>
+        <v>15774352.41540857</v>
       </c>
       <c r="M4" t="n">
-        <v>60984028.14860904</v>
+        <v>60892399.62807495</v>
       </c>
       <c r="N4" t="n">
-        <v>875120136.5024129</v>
+        <v>874986044.7346259</v>
       </c>
       <c r="O4" t="n">
-        <v>857671188.4964591</v>
+        <v>857537096.7286721</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01805855523020903</v>
+        <v>0.01802811886010453</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01842594869696049</v>
+        <v>0.0183949504640493</v>
       </c>
     </row>
     <row r="5">
@@ -687,49 +687,49 @@
         <v>10054</v>
       </c>
       <c r="C5" t="n">
-        <v>10024</v>
+        <v>10031</v>
       </c>
       <c r="D5" t="n">
-        <v>8885</v>
+        <v>8913</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8863727055067837</v>
+        <v>0.8885455089223407</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8837278695046747</v>
+        <v>0.8865128307141437</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09334574158803877</v>
+        <v>0.09321308070362111</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08249223334093142</v>
+        <v>0.08263459203415308</v>
       </c>
       <c r="I5" t="n">
-        <v>47130445.73264639</v>
+        <v>47213184.81612386</v>
       </c>
       <c r="J5" t="n">
-        <v>16445176.013788</v>
+        <v>16488847.50894834</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>16445176.013788</v>
+        <v>16488847.50894834</v>
       </c>
       <c r="M5" t="n">
-        <v>63575621.7464344</v>
+        <v>63702032.3250722</v>
       </c>
       <c r="N5" t="n">
-        <v>913371970.5379409</v>
+        <v>914432692.5229203</v>
       </c>
       <c r="O5" t="n">
-        <v>895885865.0749676</v>
+        <v>896946587.059947</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01800490549770476</v>
+        <v>0.01803177822028169</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01835632936614294</v>
+        <v>0.01838331038528866</v>
       </c>
     </row>
     <row r="6">
@@ -740,49 +740,49 @@
         <v>10254</v>
       </c>
       <c r="C6" t="n">
-        <v>10235</v>
+        <v>10225</v>
       </c>
       <c r="D6" t="n">
-        <v>9103</v>
+        <v>9080</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8893991206643869</v>
+        <v>0.8880195599022005</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8877511215135557</v>
+        <v>0.8855080944021845</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09209148262974684</v>
+        <v>0.09213732329015105</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08175431698640388</v>
+        <v>0.08158834556997968</v>
       </c>
       <c r="I6" t="n">
-        <v>49481204.14574344</v>
+        <v>49406731.03858929</v>
       </c>
       <c r="J6" t="n">
-        <v>17249441.50190688</v>
+        <v>17214575.96035406</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>17249441.50190688</v>
+        <v>17214575.96035406</v>
       </c>
       <c r="M6" t="n">
-        <v>66730645.64765032</v>
+        <v>66621306.99894334</v>
       </c>
       <c r="N6" t="n">
-        <v>954978001.9095395</v>
+        <v>956127888.2484893</v>
       </c>
       <c r="O6" t="n">
-        <v>937386176.0363579</v>
+        <v>938536062.3753077</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01806265847738432</v>
+        <v>0.01800447008390172</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01840163845262194</v>
+        <v>0.01834194406636469</v>
       </c>
     </row>
   </sheetData>

--- a/projection_results_AIP_New_Hires.xlsx
+++ b/projection_results_AIP_New_Hires.xlsx
@@ -528,49 +528,49 @@
         <v>9478</v>
       </c>
       <c r="C2" t="n">
-        <v>9444</v>
+        <v>9448</v>
       </c>
       <c r="D2" t="n">
-        <v>8346</v>
+        <v>7574</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8837357052096569</v>
+        <v>0.8016511430990686</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8805655201519308</v>
+        <v>0.7991137370753324</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0970076441535767</v>
+        <v>0.1028346976498548</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08542158663280766</v>
+        <v>0.08217661953998734</v>
       </c>
       <c r="I2" t="n">
-        <v>41076824.4099903</v>
+        <v>39239770.164845</v>
       </c>
       <c r="J2" t="n">
-        <v>14343580.15165115</v>
+        <v>13420220.8417585</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>14343580.15165115</v>
+        <v>13420220.8417585</v>
       </c>
       <c r="M2" t="n">
-        <v>55420404.56164145</v>
+        <v>52659991.0066035</v>
       </c>
       <c r="N2" t="n">
-        <v>798913812.9572001</v>
+        <v>800637542.8872001</v>
       </c>
       <c r="O2" t="n">
-        <v>781214005.9532001</v>
+        <v>782937735.8832</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01795385174097568</v>
+        <v>0.01676191800020205</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01836062851196554</v>
+        <v>0.01714085325906497</v>
       </c>
     </row>
     <row r="3">
@@ -581,49 +581,49 @@
         <v>9666</v>
       </c>
       <c r="C3" t="n">
-        <v>9640</v>
+        <v>9645</v>
       </c>
       <c r="D3" t="n">
-        <v>8568</v>
+        <v>7551</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8887966804979253</v>
+        <v>0.7828926905132193</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8864059590316573</v>
+        <v>0.7811918063314711</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09542172038036506</v>
+        <v>0.1028830618461131</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08458238156620813</v>
+        <v>0.08037140492447756</v>
       </c>
       <c r="I3" t="n">
-        <v>43142786.81432747</v>
+        <v>40538728.96122567</v>
       </c>
       <c r="J3" t="n">
-        <v>15106644.34690293</v>
+        <v>13799638.26741243</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>15106644.34690293</v>
+        <v>13799638.26741243</v>
       </c>
       <c r="M3" t="n">
-        <v>58249431.1612304</v>
+        <v>54338367.2286381</v>
       </c>
       <c r="N3" t="n">
-        <v>837045574.001528</v>
+        <v>837666957.2402281</v>
       </c>
       <c r="O3" t="n">
-        <v>819565397.977458</v>
+        <v>820186781.216158</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01804757687766635</v>
+        <v>0.01647389591786768</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01843250628221183</v>
+        <v>0.01682499472492178</v>
       </c>
     </row>
     <row r="4">
@@ -634,49 +634,49 @@
         <v>9858</v>
       </c>
       <c r="C4" t="n">
-        <v>9845</v>
+        <v>9841</v>
       </c>
       <c r="D4" t="n">
-        <v>8756</v>
+        <v>7543</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8893854748603351</v>
+        <v>0.766487145615283</v>
       </c>
       <c r="F4" t="n">
-        <v>0.888212619192534</v>
+        <v>0.7651653479407587</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09412919338671218</v>
+        <v>0.1029497547394936</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08360673740049218</v>
+        <v>0.07877358490566039</v>
       </c>
       <c r="I4" t="n">
-        <v>45118047.21266638</v>
+        <v>42014448.3095379</v>
       </c>
       <c r="J4" t="n">
-        <v>15774352.41540857</v>
+        <v>14217426.49631654</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>15774352.41540857</v>
+        <v>14217426.49631654</v>
       </c>
       <c r="M4" t="n">
-        <v>60892399.62807495</v>
+        <v>56231874.80585443</v>
       </c>
       <c r="N4" t="n">
-        <v>874986044.7346259</v>
+        <v>875577079.980539</v>
       </c>
       <c r="O4" t="n">
-        <v>857537096.7286721</v>
+        <v>858128131.9745851</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01802811886010453</v>
+        <v>0.01623777828518826</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0183949504640493</v>
+        <v>0.01656795292749779</v>
       </c>
     </row>
     <row r="5">
@@ -687,49 +687,49 @@
         <v>10054</v>
       </c>
       <c r="C5" t="n">
-        <v>10031</v>
+        <v>10035</v>
       </c>
       <c r="D5" t="n">
-        <v>8913</v>
+        <v>7534</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8885455089223407</v>
+        <v>0.7507722969606377</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8865128307141437</v>
+        <v>0.7493534911478019</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09321308070362111</v>
+        <v>0.1030222989116007</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08263459203415308</v>
+        <v>0.07720011935548041</v>
       </c>
       <c r="I5" t="n">
-        <v>47213184.81612386</v>
+        <v>43535019.83059579</v>
       </c>
       <c r="J5" t="n">
-        <v>16488847.50894834</v>
+        <v>14644484.75463068</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>16488847.50894834</v>
+        <v>14644484.75463068</v>
       </c>
       <c r="M5" t="n">
-        <v>63702032.3250722</v>
+        <v>58179504.58522647</v>
       </c>
       <c r="N5" t="n">
-        <v>914432692.5229203</v>
+        <v>913946124.0779107</v>
       </c>
       <c r="O5" t="n">
-        <v>896946587.059947</v>
+        <v>896460018.6149374</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01803177822028169</v>
+        <v>0.01602335670431958</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01838331038528866</v>
+        <v>0.01633590394500464</v>
       </c>
     </row>
     <row r="6">
@@ -740,49 +740,49 @@
         <v>10254</v>
       </c>
       <c r="C6" t="n">
-        <v>10225</v>
+        <v>10229</v>
       </c>
       <c r="D6" t="n">
-        <v>9080</v>
+        <v>7523</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8880195599022005</v>
+        <v>0.7354580115358295</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8855080944021845</v>
+        <v>0.7336649112541447</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09213732329015105</v>
+        <v>0.1030931809118703</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08158834556997968</v>
+        <v>0.07563584942461479</v>
       </c>
       <c r="I6" t="n">
-        <v>49406731.03858929</v>
+        <v>45146428.42506469</v>
       </c>
       <c r="J6" t="n">
-        <v>17214575.96035406</v>
+        <v>15078985.98419153</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>17214575.96035406</v>
+        <v>15078985.98419153</v>
       </c>
       <c r="M6" t="n">
-        <v>66621306.99894334</v>
+        <v>60225414.4092562</v>
       </c>
       <c r="N6" t="n">
-        <v>956127888.2484893</v>
+        <v>954343579.3721293</v>
       </c>
       <c r="O6" t="n">
-        <v>938536062.3753077</v>
+        <v>936751753.4989479</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01800447008390172</v>
+        <v>0.01580037452980206</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01834194406636469</v>
+        <v>0.01609709928790484</v>
       </c>
     </row>
   </sheetData>

--- a/projection_results_AIP_New_Hires.xlsx
+++ b/projection_results_AIP_New_Hires.xlsx
@@ -528,49 +528,49 @@
         <v>9478</v>
       </c>
       <c r="C2" t="n">
-        <v>9448</v>
+        <v>9456</v>
       </c>
       <c r="D2" t="n">
-        <v>7574</v>
+        <v>8390</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8016511430990686</v>
+        <v>0.8872673434856176</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7991137370753324</v>
+        <v>0.8852078497573328</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1028346976498548</v>
+        <v>0.09666309586593051</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08217661953998734</v>
+        <v>0.08556693124236725</v>
       </c>
       <c r="I2" t="n">
-        <v>39239770.164845</v>
+        <v>41213626.84427914</v>
       </c>
       <c r="J2" t="n">
-        <v>13420220.8417585</v>
+        <v>14411981.36879557</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>13420220.8417585</v>
+        <v>14411981.36879557</v>
       </c>
       <c r="M2" t="n">
-        <v>52659991.0066035</v>
+        <v>55625608.21307472</v>
       </c>
       <c r="N2" t="n">
-        <v>800637542.8872001</v>
+        <v>800758175.3072001</v>
       </c>
       <c r="O2" t="n">
-        <v>782937735.8832</v>
+        <v>783058368.3032</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01676191800020205</v>
+        <v>0.01799791973808648</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01714085325906497</v>
+        <v>0.01840473450277369</v>
       </c>
     </row>
     <row r="3">
@@ -581,49 +581,49 @@
         <v>9666</v>
       </c>
       <c r="C3" t="n">
-        <v>9645</v>
+        <v>9643</v>
       </c>
       <c r="D3" t="n">
-        <v>7551</v>
+        <v>8553</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7828926905132193</v>
+        <v>0.886964637560925</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7811918063314711</v>
+        <v>0.8848541278708877</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1028830618461131</v>
+        <v>0.09541183041090721</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08037140492447756</v>
+        <v>0.08442555198680833</v>
       </c>
       <c r="I3" t="n">
-        <v>40538728.96122567</v>
+        <v>43058552.09083918</v>
       </c>
       <c r="J3" t="n">
-        <v>13799638.26741243</v>
+        <v>15064526.98515879</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>13799638.26741243</v>
+        <v>15064526.98515879</v>
       </c>
       <c r="M3" t="n">
-        <v>54338367.2286381</v>
+        <v>58123079.07599795</v>
       </c>
       <c r="N3" t="n">
-        <v>837666957.2402281</v>
+        <v>837166427.141628</v>
       </c>
       <c r="O3" t="n">
-        <v>820186781.216158</v>
+        <v>819686251.117558</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01647389591786768</v>
+        <v>0.0179946621086971</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01682499472492178</v>
+        <v>0.01837840632878721</v>
       </c>
     </row>
     <row r="4">
@@ -634,49 +634,49 @@
         <v>9858</v>
       </c>
       <c r="C4" t="n">
-        <v>9841</v>
+        <v>9833</v>
       </c>
       <c r="D4" t="n">
-        <v>7543</v>
+        <v>8760</v>
       </c>
       <c r="E4" t="n">
-        <v>0.766487145615283</v>
+        <v>0.8908776568697244</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7651653479407587</v>
+        <v>0.888618381010347</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1029497547394936</v>
+        <v>0.09408327412763762</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07877358490566039</v>
+        <v>0.08360412673545399</v>
       </c>
       <c r="I4" t="n">
-        <v>42014448.3095379</v>
+        <v>45171746.23605794</v>
       </c>
       <c r="J4" t="n">
-        <v>14217426.49631654</v>
+        <v>15801201.92710435</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>14217426.49631654</v>
+        <v>15801201.92710435</v>
       </c>
       <c r="M4" t="n">
-        <v>56231874.80585443</v>
+        <v>60972948.16316229</v>
       </c>
       <c r="N4" t="n">
-        <v>875577079.980539</v>
+        <v>875679138.500765</v>
       </c>
       <c r="O4" t="n">
-        <v>858128131.9745851</v>
+        <v>858230190.4948111</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01623777828518826</v>
+        <v>0.0180445110913083</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01656795292749779</v>
+        <v>0.01841137972318848</v>
       </c>
     </row>
     <row r="5">
@@ -687,49 +687,49 @@
         <v>10054</v>
       </c>
       <c r="C5" t="n">
-        <v>10035</v>
+        <v>10029</v>
       </c>
       <c r="D5" t="n">
-        <v>7534</v>
+        <v>8920</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7507722969606377</v>
+        <v>0.8894206800279191</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7493534911478019</v>
+        <v>0.8872090710165108</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1030222989116007</v>
+        <v>0.09311928308151099</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07720011935548041</v>
+        <v>0.08261627263647085</v>
       </c>
       <c r="I5" t="n">
-        <v>43535019.83059579</v>
+        <v>47228158.87806591</v>
       </c>
       <c r="J5" t="n">
-        <v>14644484.75463068</v>
+        <v>16496334.53991937</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>14644484.75463068</v>
+        <v>16496334.53991937</v>
       </c>
       <c r="M5" t="n">
-        <v>58179504.58522647</v>
+        <v>63724493.41798528</v>
       </c>
       <c r="N5" t="n">
-        <v>913946124.0779107</v>
+        <v>914254174.7405434</v>
       </c>
       <c r="O5" t="n">
-        <v>896460018.6149374</v>
+        <v>896768069.2775702</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01602335670431958</v>
+        <v>0.01804348833802248</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01633590394500464</v>
+        <v>0.01839531881772808</v>
       </c>
     </row>
     <row r="6">
@@ -740,49 +740,49 @@
         <v>10254</v>
       </c>
       <c r="C6" t="n">
-        <v>10229</v>
+        <v>10232</v>
       </c>
       <c r="D6" t="n">
-        <v>7523</v>
+        <v>9105</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7354580115358295</v>
+        <v>0.8898553557466771</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7336649112541447</v>
+        <v>0.8879461673493271</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1030931809118703</v>
+        <v>0.09199977791416801</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07563584942461479</v>
+        <v>0.08169085019587474</v>
       </c>
       <c r="I6" t="n">
-        <v>45146428.42506469</v>
+        <v>49468210.12644157</v>
       </c>
       <c r="J6" t="n">
-        <v>15078985.98419153</v>
+        <v>17245315.50428019</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>15078985.98419153</v>
+        <v>17245315.50428019</v>
       </c>
       <c r="M6" t="n">
-        <v>60225414.4092562</v>
+        <v>66713525.63072176</v>
       </c>
       <c r="N6" t="n">
-        <v>954343579.3721293</v>
+        <v>955710133.1542411</v>
       </c>
       <c r="O6" t="n">
-        <v>936751753.4989479</v>
+        <v>938118307.2810595</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01580037452980206</v>
+        <v>0.01804450419225281</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01609709928790484</v>
+        <v>0.01838287918531528</v>
       </c>
     </row>
   </sheetData>

--- a/projection_results_AIP_New_Hires.xlsx
+++ b/projection_results_AIP_New_Hires.xlsx
@@ -528,49 +528,49 @@
         <v>9478</v>
       </c>
       <c r="C2" t="n">
-        <v>9456</v>
+        <v>9453</v>
       </c>
       <c r="D2" t="n">
-        <v>8390</v>
+        <v>8379</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8872673434856176</v>
+        <v>0.8863852745160267</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8852078497573328</v>
+        <v>0.8840472673559823</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09666309586593051</v>
+        <v>0.09675112722510387</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08556693124236725</v>
+        <v>0.08553256963696407</v>
       </c>
       <c r="I2" t="n">
-        <v>41213626.84427914</v>
+        <v>41181848.30283703</v>
       </c>
       <c r="J2" t="n">
-        <v>14411981.36879557</v>
+        <v>14396092.09807451</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>14411981.36879557</v>
+        <v>14396092.09807451</v>
       </c>
       <c r="M2" t="n">
-        <v>55625608.21307472</v>
+        <v>55577940.40091153</v>
       </c>
       <c r="N2" t="n">
-        <v>800758175.3072001</v>
+        <v>800091928.4872</v>
       </c>
       <c r="O2" t="n">
-        <v>783058368.3032</v>
+        <v>782392121.4832001</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01799791973808648</v>
+        <v>0.01799304753054364</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01840473450277369</v>
+        <v>0.01840009849636968</v>
       </c>
     </row>
     <row r="3">
@@ -581,49 +581,49 @@
         <v>9666</v>
       </c>
       <c r="C3" t="n">
-        <v>9643</v>
+        <v>9644</v>
       </c>
       <c r="D3" t="n">
-        <v>8553</v>
+        <v>8563</v>
       </c>
       <c r="E3" t="n">
-        <v>0.886964637560925</v>
+        <v>0.8879095810866861</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8848541278708877</v>
+        <v>0.8858886819780675</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09541183041090721</v>
+        <v>0.09538540115674442</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08442555198680833</v>
+        <v>0.08450084731069751</v>
       </c>
       <c r="I3" t="n">
-        <v>43058552.09083918</v>
+        <v>43122511.22151443</v>
       </c>
       <c r="J3" t="n">
-        <v>15064526.98515879</v>
+        <v>15096506.55049641</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>15064526.98515879</v>
+        <v>15096506.55049641</v>
       </c>
       <c r="M3" t="n">
-        <v>58123079.07599795</v>
+        <v>58219017.77201083</v>
       </c>
       <c r="N3" t="n">
-        <v>837166427.141628</v>
+        <v>837860675.346328</v>
       </c>
       <c r="O3" t="n">
-        <v>819686251.117558</v>
+        <v>820380499.322258</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0179946621086971</v>
+        <v>0.01801791991760002</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01837840632878721</v>
+        <v>0.01840183495703287</v>
       </c>
     </row>
     <row r="4">
@@ -634,49 +634,49 @@
         <v>9858</v>
       </c>
       <c r="C4" t="n">
-        <v>9833</v>
+        <v>9824</v>
       </c>
       <c r="D4" t="n">
-        <v>8760</v>
+        <v>8726</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8908776568697244</v>
+        <v>0.8882328990228013</v>
       </c>
       <c r="F4" t="n">
-        <v>0.888618381010347</v>
+        <v>0.8851694055589369</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09408327412763762</v>
+        <v>0.09438221778644625</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08360412673545399</v>
+        <v>0.08354425161336274</v>
       </c>
       <c r="I4" t="n">
-        <v>45171746.23605794</v>
+        <v>45115835.6214844</v>
       </c>
       <c r="J4" t="n">
-        <v>15801201.92710435</v>
+        <v>15773246.61981758</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>15801201.92710435</v>
+        <v>15773246.61981758</v>
       </c>
       <c r="M4" t="n">
-        <v>60972948.16316229</v>
+        <v>60889082.24130198</v>
       </c>
       <c r="N4" t="n">
-        <v>875679138.500765</v>
+        <v>874134762.184269</v>
       </c>
       <c r="O4" t="n">
-        <v>858230190.4948111</v>
+        <v>856685814.1783152</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0180445110913083</v>
+        <v>0.01804441065860799</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01841137972318848</v>
+        <v>0.01841193861129403</v>
       </c>
     </row>
     <row r="5">
@@ -690,46 +690,46 @@
         <v>10029</v>
       </c>
       <c r="D5" t="n">
-        <v>8920</v>
+        <v>8915</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8894206800279191</v>
+        <v>0.8889221258350782</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8872090710165108</v>
+        <v>0.8867117565148199</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09311928308151099</v>
+        <v>0.09325617978731912</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08261627263647085</v>
+        <v>0.08269135098507559</v>
       </c>
       <c r="I5" t="n">
-        <v>47228158.87806591</v>
+        <v>47276888.58374348</v>
       </c>
       <c r="J5" t="n">
-        <v>16496334.53991937</v>
+        <v>16520699.39275815</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>16496334.53991937</v>
+        <v>16520699.39275815</v>
       </c>
       <c r="M5" t="n">
-        <v>63724493.41798528</v>
+        <v>63797587.97650164</v>
       </c>
       <c r="N5" t="n">
-        <v>914254174.7405434</v>
+        <v>914424195.1217525</v>
       </c>
       <c r="O5" t="n">
-        <v>896768069.2775702</v>
+        <v>896938089.6587793</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01804348833802248</v>
+        <v>0.01806677850486937</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01839531881772808</v>
+        <v>0.01841899634237085</v>
       </c>
     </row>
     <row r="6">
@@ -740,49 +740,49 @@
         <v>10254</v>
       </c>
       <c r="C6" t="n">
-        <v>10232</v>
+        <v>10229</v>
       </c>
       <c r="D6" t="n">
-        <v>9105</v>
+        <v>9106</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8898553557466771</v>
+        <v>0.8902140971746993</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8879461673493271</v>
+        <v>0.8880436902672127</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09199977791416801</v>
+        <v>0.09212643515120535</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08169085019587474</v>
+        <v>0.08181229944283946</v>
       </c>
       <c r="I6" t="n">
-        <v>49468210.12644157</v>
+        <v>49566607.15969561</v>
       </c>
       <c r="J6" t="n">
-        <v>17245315.50428019</v>
+        <v>17294514.02090722</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>17245315.50428019</v>
+        <v>17294514.02090722</v>
       </c>
       <c r="M6" t="n">
-        <v>66713525.63072176</v>
+        <v>66861121.18060283</v>
       </c>
       <c r="N6" t="n">
-        <v>955710133.1542411</v>
+        <v>955116216.3787864</v>
       </c>
       <c r="O6" t="n">
-        <v>938118307.2810595</v>
+        <v>937524390.505605</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01804450419225281</v>
+        <v>0.01810723524983942</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01838287918531528</v>
+        <v>0.01844700169515624</v>
       </c>
     </row>
   </sheetData>

--- a/projection_results_AIP_New_Hires.xlsx
+++ b/projection_results_AIP_New_Hires.xlsx
@@ -525,52 +525,52 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9478</v>
+        <v>102</v>
       </c>
       <c r="C2" t="n">
-        <v>9453</v>
+        <v>101</v>
       </c>
       <c r="D2" t="n">
-        <v>8379</v>
+        <v>85</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8863852745160267</v>
+        <v>0.8415841584158416</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8840472673559823</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09675112722510387</v>
+        <v>0.1003363526021026</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08553256963696407</v>
+        <v>0.08361362716841886</v>
       </c>
       <c r="I2" t="n">
-        <v>41181848.30283703</v>
+        <v>460561.0260389551</v>
       </c>
       <c r="J2" t="n">
-        <v>14396092.09807451</v>
+        <v>167666.5132204776</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>14396092.09807451</v>
+        <v>167666.5132204776</v>
       </c>
       <c r="M2" t="n">
-        <v>55577940.40091153</v>
+        <v>628227.5392594326</v>
       </c>
       <c r="N2" t="n">
-        <v>800091928.4872</v>
+        <v>10081246.3288</v>
       </c>
       <c r="O2" t="n">
-        <v>782392121.4832001</v>
+        <v>9673505.398699997</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01799304753054364</v>
+        <v>0.01663152627681457</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01840009849636968</v>
+        <v>0.01733254971284866</v>
       </c>
     </row>
     <row r="3">
@@ -578,52 +578,52 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9666</v>
+        <v>103</v>
       </c>
       <c r="C3" t="n">
-        <v>9644</v>
+        <v>103</v>
       </c>
       <c r="D3" t="n">
-        <v>8563</v>
+        <v>87</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8879095810866861</v>
+        <v>0.8446601941747572</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8858886819780675</v>
+        <v>0.8446601941747572</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09538540115674442</v>
+        <v>0.09903479425028895</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08450084731069751</v>
+        <v>0.08365074854150621</v>
       </c>
       <c r="I3" t="n">
-        <v>43122511.22151443</v>
+        <v>486903.624841487</v>
       </c>
       <c r="J3" t="n">
-        <v>15096506.55049641</v>
+        <v>178239.3926277735</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>15096506.55049641</v>
+        <v>178239.3926277735</v>
       </c>
       <c r="M3" t="n">
-        <v>58219017.77201083</v>
+        <v>665143.0174692603</v>
       </c>
       <c r="N3" t="n">
-        <v>837860675.346328</v>
+        <v>10637203.005464</v>
       </c>
       <c r="O3" t="n">
-        <v>820380499.322258</v>
+        <v>10229829.847461</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01801791991760002</v>
+        <v>0.01675622741581762</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01840183495703287</v>
+        <v>0.01742349533526324</v>
       </c>
     </row>
     <row r="4">
@@ -631,52 +631,52 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9858</v>
+        <v>104</v>
       </c>
       <c r="C4" t="n">
-        <v>9824</v>
+        <v>103</v>
       </c>
       <c r="D4" t="n">
-        <v>8726</v>
+        <v>88</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8882328990228013</v>
+        <v>0.8543689320388349</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8851694055589369</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09438221778644625</v>
+        <v>0.09855902998287509</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08354425161336274</v>
+        <v>0.08339610229320202</v>
       </c>
       <c r="I4" t="n">
-        <v>45115835.6214844</v>
+        <v>508874.7839486722</v>
       </c>
       <c r="J4" t="n">
-        <v>15773246.61981758</v>
+        <v>182138.599587577</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>15773246.61981758</v>
+        <v>182138.599587577</v>
       </c>
       <c r="M4" t="n">
-        <v>60889082.24130198</v>
+        <v>691013.3835362492</v>
       </c>
       <c r="N4" t="n">
-        <v>874134762.184269</v>
+        <v>10795112.11552792</v>
       </c>
       <c r="O4" t="n">
-        <v>856685814.1783152</v>
+        <v>10386767.76278483</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01804441065860799</v>
+        <v>0.01687232125413361</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01841193861129403</v>
+        <v>0.01753563801052419</v>
       </c>
     </row>
     <row r="5">
@@ -684,52 +684,52 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10054</v>
+        <v>105</v>
       </c>
       <c r="C5" t="n">
-        <v>10029</v>
+        <v>105</v>
       </c>
       <c r="D5" t="n">
-        <v>8915</v>
+        <v>89</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8889221258350782</v>
+        <v>0.8476190476190476</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8867117565148199</v>
+        <v>0.8476190476190476</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09325617978731912</v>
+        <v>0.09827781108665552</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08269135098507559</v>
+        <v>0.08330214463535565</v>
       </c>
       <c r="I5" t="n">
-        <v>47276888.58374348</v>
+        <v>531695.2573335718</v>
       </c>
       <c r="J5" t="n">
-        <v>16520699.39275815</v>
+        <v>190974.872508424</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>16520699.39275815</v>
+        <v>190974.872508424</v>
       </c>
       <c r="M5" t="n">
-        <v>63797587.97650164</v>
+        <v>722670.1298419957</v>
       </c>
       <c r="N5" t="n">
-        <v>914424195.1217525</v>
+        <v>11349892.00119376</v>
       </c>
       <c r="O5" t="n">
-        <v>896938089.6587793</v>
+        <v>10939197.31786837</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01806677850486937</v>
+        <v>0.01682614006268409</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01841899634237085</v>
+        <v>0.01745785060449367</v>
       </c>
     </row>
     <row r="6">
@@ -737,52 +737,52 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10254</v>
+        <v>106</v>
       </c>
       <c r="C6" t="n">
-        <v>10229</v>
+        <v>106</v>
       </c>
       <c r="D6" t="n">
-        <v>9106</v>
+        <v>89</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8902140971746993</v>
+        <v>0.839622641509434</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8880436902672127</v>
+        <v>0.839622641509434</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09212643515120535</v>
+        <v>0.0979325194061124</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08181229944283946</v>
+        <v>0.082226360633434</v>
       </c>
       <c r="I6" t="n">
-        <v>49566607.15969561</v>
+        <v>547947.509474281</v>
       </c>
       <c r="J6" t="n">
-        <v>17294514.02090722</v>
+        <v>196039.8158940278</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>17294514.02090722</v>
+        <v>196039.8158940278</v>
       </c>
       <c r="M6" t="n">
-        <v>66861121.18060283</v>
+        <v>743987.3253683088</v>
       </c>
       <c r="N6" t="n">
-        <v>955116216.3787864</v>
+        <v>11668294.54402957</v>
       </c>
       <c r="O6" t="n">
-        <v>937524390.505605</v>
+        <v>11253829.02020442</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01810723524983942</v>
+        <v>0.016801068498424</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01844700169515624</v>
+        <v>0.01741983244476792</v>
       </c>
     </row>
   </sheetData>

--- a/projection_results_AIP_New_Hires.xlsx
+++ b/projection_results_AIP_New_Hires.xlsx
@@ -528,49 +528,49 @@
         <v>102</v>
       </c>
       <c r="C2" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D2" t="n">
         <v>85</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8415841584158416</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F2" t="n">
         <v>0.8333333333333334</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1003363526021026</v>
+        <v>0.1003684358597651</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08361362716841886</v>
+        <v>0.08364036321647093</v>
       </c>
       <c r="I2" t="n">
-        <v>460561.0260389551</v>
+        <v>456350.2764925769</v>
       </c>
       <c r="J2" t="n">
-        <v>167666.5132204776</v>
+        <v>165561.1384472884</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>167666.5132204776</v>
+        <v>165561.1384472884</v>
       </c>
       <c r="M2" t="n">
-        <v>628227.5392594326</v>
+        <v>621911.4149398654</v>
       </c>
       <c r="N2" t="n">
-        <v>10081246.3288</v>
+        <v>10078372.3488</v>
       </c>
       <c r="O2" t="n">
-        <v>9673505.398699997</v>
+        <v>9670631.418699998</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01663152627681457</v>
+        <v>0.01642736869778395</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01733254971284866</v>
+        <v>0.01711999261259659</v>
       </c>
     </row>
     <row r="3">
@@ -584,46 +584,46 @@
         <v>103</v>
       </c>
       <c r="D3" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8446601941747572</v>
+        <v>0.8349514563106796</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8446601941747572</v>
+        <v>0.8349514563106796</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09903479425028895</v>
+        <v>0.09909943690069946</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08365074854150621</v>
+        <v>0.08274321915980733</v>
       </c>
       <c r="I3" t="n">
-        <v>486903.624841487</v>
+        <v>475621.2913790991</v>
       </c>
       <c r="J3" t="n">
-        <v>178239.3926277735</v>
+        <v>172598.2258965795</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>178239.3926277735</v>
+        <v>172598.2258965795</v>
       </c>
       <c r="M3" t="n">
-        <v>665143.0174692603</v>
+        <v>648219.5172756788</v>
       </c>
       <c r="N3" t="n">
-        <v>10637203.005464</v>
+        <v>10579921.128564</v>
       </c>
       <c r="O3" t="n">
-        <v>10229829.847461</v>
+        <v>10172547.970561</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01675622741581762</v>
+        <v>0.01631375355252824</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01742349533526324</v>
+        <v>0.01696705942268081</v>
       </c>
     </row>
     <row r="4">
@@ -634,49 +634,49 @@
         <v>104</v>
       </c>
       <c r="C4" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D4" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8543689320388349</v>
+        <v>0.8365384615384616</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.8365384615384616</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09855902998287509</v>
+        <v>0.09886985879837833</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08339610229320202</v>
+        <v>0.08270843957172033</v>
       </c>
       <c r="I4" t="n">
-        <v>508874.7839486722</v>
+        <v>503855.2163199777</v>
       </c>
       <c r="J4" t="n">
-        <v>182138.599587577</v>
+        <v>179628.8157732298</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>182138.599587577</v>
+        <v>179628.8157732298</v>
       </c>
       <c r="M4" t="n">
-        <v>691013.3835362492</v>
+        <v>683484.0320932076</v>
       </c>
       <c r="N4" t="n">
-        <v>10795112.11552792</v>
+        <v>10893476.50522092</v>
       </c>
       <c r="O4" t="n">
-        <v>10386767.76278483</v>
+        <v>10485132.15247783</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01687232125413361</v>
+        <v>0.01648957664590721</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01753563801052419</v>
+        <v>0.01713176459399991</v>
       </c>
     </row>
     <row r="5">
@@ -690,46 +690,46 @@
         <v>105</v>
       </c>
       <c r="D5" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8476190476190476</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8476190476190476</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09827781108665552</v>
+        <v>0.09652624012210713</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08330214463535565</v>
+        <v>0.08365607477249284</v>
       </c>
       <c r="I5" t="n">
-        <v>531695.2573335718</v>
+        <v>536050.1427417491</v>
       </c>
       <c r="J5" t="n">
-        <v>190974.872508424</v>
+        <v>193152.3152125126</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>190974.872508424</v>
+        <v>193152.3152125126</v>
       </c>
       <c r="M5" t="n">
-        <v>722670.1298419957</v>
+        <v>729202.4579542616</v>
       </c>
       <c r="N5" t="n">
-        <v>11349892.00119376</v>
+        <v>11344132.16627755</v>
       </c>
       <c r="O5" t="n">
-        <v>10939197.31786837</v>
+        <v>10933437.48295217</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01682614006268409</v>
+        <v>0.01702662772095447</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01745785060449367</v>
+        <v>0.01766620200771103</v>
       </c>
     </row>
     <row r="6">
@@ -743,46 +743,46 @@
         <v>106</v>
       </c>
       <c r="D6" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E6" t="n">
-        <v>0.839622641509434</v>
+        <v>0.8490566037735849</v>
       </c>
       <c r="F6" t="n">
-        <v>0.839622641509434</v>
+        <v>0.8490566037735849</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0979325194061124</v>
+        <v>0.09703484391241361</v>
       </c>
       <c r="H6" t="n">
-        <v>0.082226360633434</v>
+        <v>0.08238807501997383</v>
       </c>
       <c r="I6" t="n">
-        <v>547947.509474281</v>
+        <v>551966.9472694583</v>
       </c>
       <c r="J6" t="n">
-        <v>196039.8158940278</v>
+        <v>198049.5347916165</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>196039.8158940278</v>
+        <v>198049.5347916165</v>
       </c>
       <c r="M6" t="n">
-        <v>743987.3253683088</v>
+        <v>750016.4820610748</v>
       </c>
       <c r="N6" t="n">
-        <v>11668294.54402957</v>
+        <v>11800478.14216588</v>
       </c>
       <c r="O6" t="n">
-        <v>11253829.02020442</v>
+        <v>11386012.61834073</v>
       </c>
       <c r="P6" t="n">
-        <v>0.016801068498424</v>
+        <v>0.01678317881747004</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01741983244476792</v>
+        <v>0.01739410814217752</v>
       </c>
     </row>
   </sheetData>

--- a/projection_results_AIP_New_Hires.xlsx
+++ b/projection_results_AIP_New_Hires.xlsx
@@ -528,49 +528,49 @@
         <v>102</v>
       </c>
       <c r="C2" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8613861386138614</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1003684358597651</v>
+        <v>0.09777407078138732</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08364036321647093</v>
+        <v>0.08339553096059507</v>
       </c>
       <c r="I2" t="n">
-        <v>456350.2764925769</v>
+        <v>459306.928978237</v>
       </c>
       <c r="J2" t="n">
-        <v>165561.1384472884</v>
+        <v>167039.4646901185</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>165561.1384472884</v>
+        <v>167039.4646901185</v>
       </c>
       <c r="M2" t="n">
-        <v>621911.4149398654</v>
+        <v>626346.3936683555</v>
       </c>
       <c r="N2" t="n">
-        <v>10078372.3488</v>
+        <v>10084600.3388</v>
       </c>
       <c r="O2" t="n">
-        <v>9670631.418699998</v>
+        <v>9676859.4087</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01642736869778395</v>
+        <v>0.01656381602426448</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01711999261259659</v>
+        <v>0.01726174346812782</v>
       </c>
     </row>
     <row r="3">
@@ -581,49 +581,49 @@
         <v>103</v>
       </c>
       <c r="C3" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D3" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8349514563106796</v>
+        <v>0.8627450980392157</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8349514563106796</v>
+        <v>0.8543689320388349</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09909943690069946</v>
+        <v>0.09815169676873819</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08274321915980733</v>
+        <v>0.08385776034610644</v>
       </c>
       <c r="I3" t="n">
-        <v>475621.2913790991</v>
+        <v>484236.7288196762</v>
       </c>
       <c r="J3" t="n">
-        <v>172598.2258965795</v>
+        <v>176905.9446168681</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>172598.2258965795</v>
+        <v>176905.9446168681</v>
       </c>
       <c r="M3" t="n">
-        <v>648219.5172756788</v>
+        <v>661142.6734365443</v>
       </c>
       <c r="N3" t="n">
-        <v>10579921.128564</v>
+        <v>10481710.504064</v>
       </c>
       <c r="O3" t="n">
-        <v>10172547.970561</v>
+        <v>10074337.346061</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01631375355252824</v>
+        <v>0.01687758353450781</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01696705942268081</v>
+        <v>0.01756005765342344</v>
       </c>
     </row>
     <row r="4">
@@ -637,46 +637,46 @@
         <v>104</v>
       </c>
       <c r="D4" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8365384615384616</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8365384615384616</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09886985879837833</v>
+        <v>0.09881066311551624</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08270843957172033</v>
+        <v>0.08360902263620605</v>
       </c>
       <c r="I4" t="n">
-        <v>503855.2163199777</v>
+        <v>510062.6018105842</v>
       </c>
       <c r="J4" t="n">
-        <v>179628.8157732298</v>
+        <v>182732.508518533</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>179628.8157732298</v>
+        <v>182732.508518533</v>
       </c>
       <c r="M4" t="n">
-        <v>683484.0320932076</v>
+        <v>692795.1103291172</v>
       </c>
       <c r="N4" t="n">
-        <v>10893476.50522092</v>
+        <v>10837517.91078592</v>
       </c>
       <c r="O4" t="n">
-        <v>10485132.15247783</v>
+        <v>10429173.55804283</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01648957664590721</v>
+        <v>0.01686110325471023</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01713176459399991</v>
+        <v>0.0175212836857636</v>
       </c>
     </row>
     <row r="5">
@@ -690,46 +690,46 @@
         <v>105</v>
       </c>
       <c r="D5" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8476190476190476</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8476190476190476</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09652624012210713</v>
+        <v>0.09810748281467674</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08365607477249284</v>
+        <v>0.08315777114767837</v>
       </c>
       <c r="I5" t="n">
-        <v>536050.1427417491</v>
+        <v>528942.5728075609</v>
       </c>
       <c r="J5" t="n">
-        <v>193152.3152125126</v>
+        <v>189598.5302454186</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>193152.3152125126</v>
+        <v>189598.5302454186</v>
       </c>
       <c r="M5" t="n">
-        <v>729202.4579542616</v>
+        <v>718541.1030529796</v>
       </c>
       <c r="N5" t="n">
-        <v>11344132.16627755</v>
+        <v>11253820.6075095</v>
       </c>
       <c r="O5" t="n">
-        <v>10933437.48295217</v>
+        <v>10843125.92418412</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01702662772095447</v>
+        <v>0.01684748112289106</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01766620200771103</v>
+        <v>0.01748559701059497</v>
       </c>
     </row>
     <row r="6">
@@ -743,46 +743,46 @@
         <v>106</v>
       </c>
       <c r="D6" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8490566037735849</v>
+        <v>0.839622641509434</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8490566037735849</v>
+        <v>0.839622641509434</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09703484391241361</v>
+        <v>0.09785518137528718</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08238807501997383</v>
+        <v>0.08216142587170339</v>
       </c>
       <c r="I6" t="n">
-        <v>551966.9472694583</v>
+        <v>546463.8167449427</v>
       </c>
       <c r="J6" t="n">
-        <v>198049.5347916165</v>
+        <v>195297.9695293586</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>198049.5347916165</v>
+        <v>195297.9695293586</v>
       </c>
       <c r="M6" t="n">
-        <v>750016.4820610748</v>
+        <v>741761.7862743011</v>
       </c>
       <c r="N6" t="n">
-        <v>11800478.14216588</v>
+        <v>11744042.02153478</v>
       </c>
       <c r="O6" t="n">
-        <v>11386012.61834073</v>
+        <v>11329576.49770964</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01678317881747004</v>
+        <v>0.01662953599546435</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01739410814217752</v>
+        <v>0.01723788789182363</v>
       </c>
     </row>
   </sheetData>

--- a/projection_results_AIP_New_Hires.xlsx
+++ b/projection_results_AIP_New_Hires.xlsx
@@ -528,49 +528,49 @@
         <v>102</v>
       </c>
       <c r="C2" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D2" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8613861386138614</v>
+        <v>0.8627450980392157</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8529411764705882</v>
+        <v>0.8627450980392157</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09777407078138732</v>
+        <v>0.09833450573160141</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08339553096059507</v>
+        <v>0.08483761278804831</v>
       </c>
       <c r="I2" t="n">
-        <v>459306.928978237</v>
+        <v>472190.6408301356</v>
       </c>
       <c r="J2" t="n">
-        <v>167039.4646901185</v>
+        <v>173481.3206160678</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>167039.4646901185</v>
+        <v>173481.3206160678</v>
       </c>
       <c r="M2" t="n">
-        <v>626346.3936683555</v>
+        <v>645671.9614462035</v>
       </c>
       <c r="N2" t="n">
-        <v>10084600.3388</v>
+        <v>10262129.6088</v>
       </c>
       <c r="O2" t="n">
-        <v>9676859.4087</v>
+        <v>9854388.678699998</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01656381602426448</v>
+        <v>0.01690500190791819</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01726174346812782</v>
+        <v>0.01760447312079775</v>
       </c>
     </row>
     <row r="3">
@@ -581,49 +581,49 @@
         <v>103</v>
       </c>
       <c r="C3" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D3" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8627450980392157</v>
+        <v>0.8640776699029126</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8543689320388349</v>
+        <v>0.8640776699029126</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09815169676873819</v>
+        <v>0.09614705683641531</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08385776034610644</v>
+        <v>0.08307852483923264</v>
       </c>
       <c r="I3" t="n">
-        <v>484236.7288196762</v>
+        <v>477788.110972513</v>
       </c>
       <c r="J3" t="n">
-        <v>176905.9446168681</v>
+        <v>173681.6356932865</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>176905.9446168681</v>
+        <v>173681.6356932865</v>
       </c>
       <c r="M3" t="n">
-        <v>661142.6734365443</v>
+        <v>651469.7466657992</v>
       </c>
       <c r="N3" t="n">
-        <v>10481710.504064</v>
+        <v>10483190.267664</v>
       </c>
       <c r="O3" t="n">
-        <v>10074337.346061</v>
+        <v>10075817.109661</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01687758353450781</v>
+        <v>0.01656763172838877</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01756005765342344</v>
+        <v>0.01723747402349683</v>
       </c>
     </row>
     <row r="4">
@@ -634,49 +634,49 @@
         <v>104</v>
       </c>
       <c r="C4" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D4" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.8640776699029126</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.8557692307692307</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09881066311551624</v>
+        <v>0.0970994315717198</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08360902263620605</v>
+        <v>0.08319085971041408</v>
       </c>
       <c r="I4" t="n">
-        <v>510062.6018105842</v>
+        <v>509184.1566766572</v>
       </c>
       <c r="J4" t="n">
-        <v>182732.508518533</v>
+        <v>182293.2859515694</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>182732.508518533</v>
+        <v>182293.2859515694</v>
       </c>
       <c r="M4" t="n">
-        <v>692795.1103291172</v>
+        <v>691477.4426282267</v>
       </c>
       <c r="N4" t="n">
-        <v>10837517.91078592</v>
+        <v>10842468.31879392</v>
       </c>
       <c r="O4" t="n">
-        <v>10429173.55804283</v>
+        <v>10434123.96605083</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01686110325471023</v>
+        <v>0.01681289542120121</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0175212836857636</v>
+        <v>0.01747087599732293</v>
       </c>
     </row>
     <row r="5">
@@ -690,46 +690,46 @@
         <v>105</v>
       </c>
       <c r="D5" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8476190476190476</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8476190476190476</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09810748281467674</v>
+        <v>0.09511055620966978</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08315777114767837</v>
+        <v>0.08242914871504717</v>
       </c>
       <c r="I5" t="n">
-        <v>528942.5728075609</v>
+        <v>526523.2199554271</v>
       </c>
       <c r="J5" t="n">
-        <v>189598.5302454186</v>
+        <v>188388.8538193516</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>189598.5302454186</v>
+        <v>188388.8538193516</v>
       </c>
       <c r="M5" t="n">
-        <v>718541.1030529796</v>
+        <v>714912.0737747787</v>
       </c>
       <c r="N5" t="n">
-        <v>11253820.6075095</v>
+        <v>11280831.86545774</v>
       </c>
       <c r="O5" t="n">
-        <v>10843125.92418412</v>
+        <v>10870137.18213236</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01684748112289106</v>
+        <v>0.01669990795591983</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01748559701059497</v>
+        <v>0.01733086258828576</v>
       </c>
     </row>
     <row r="6">
@@ -743,46 +743,46 @@
         <v>106</v>
       </c>
       <c r="D6" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E6" t="n">
-        <v>0.839622641509434</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="F6" t="n">
-        <v>0.839622641509434</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09785518137528718</v>
+        <v>0.09510156385804072</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08216142587170339</v>
+        <v>0.08254097995226177</v>
       </c>
       <c r="I6" t="n">
-        <v>546463.8167449427</v>
+        <v>551974.7101267558</v>
       </c>
       <c r="J6" t="n">
-        <v>195297.9695293586</v>
+        <v>198053.4162202651</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>195297.9695293586</v>
+        <v>198053.4162202651</v>
       </c>
       <c r="M6" t="n">
-        <v>741761.7862743011</v>
+        <v>750028.1263470209</v>
       </c>
       <c r="N6" t="n">
-        <v>11744042.02153478</v>
+        <v>11729815.62832147</v>
       </c>
       <c r="O6" t="n">
-        <v>11329576.49770964</v>
+        <v>11315350.10449633</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01662953599546435</v>
+        <v>0.01688461460059679</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01723788789182363</v>
+        <v>0.01750307453072668</v>
       </c>
     </row>
   </sheetData>

--- a/projection_results_AIP_New_Hires.xlsx
+++ b/projection_results_AIP_New_Hires.xlsx
@@ -528,49 +528,49 @@
         <v>102</v>
       </c>
       <c r="C2" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8627450980392157</v>
+        <v>0.8613861386138614</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8627450980392157</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09833450573160141</v>
+        <v>0.09847934560753153</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08483761278804831</v>
+        <v>0.08409512811622789</v>
       </c>
       <c r="I2" t="n">
-        <v>472190.6408301356</v>
+        <v>461526.6616369847</v>
       </c>
       <c r="J2" t="n">
-        <v>173481.3206160678</v>
+        <v>168149.3310194924</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>173481.3206160678</v>
+        <v>168149.3310194924</v>
       </c>
       <c r="M2" t="n">
-        <v>645671.9614462035</v>
+        <v>629675.9926564771</v>
       </c>
       <c r="N2" t="n">
-        <v>10262129.6088</v>
+        <v>10098564.6888</v>
       </c>
       <c r="O2" t="n">
-        <v>9854388.678699998</v>
+        <v>9690823.758699998</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01690500190791819</v>
+        <v>0.01665081486342128</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01760447312079775</v>
+        <v>0.01735139707483951</v>
       </c>
     </row>
     <row r="3">
@@ -593,37 +593,37 @@
         <v>0.8640776699029126</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09614705683641531</v>
+        <v>0.09664744730659888</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08307852483923264</v>
+        <v>0.08351090107075052</v>
       </c>
       <c r="I3" t="n">
-        <v>477788.110972513</v>
+        <v>480378.4435696948</v>
       </c>
       <c r="J3" t="n">
-        <v>173681.6356932865</v>
+        <v>174976.8019918774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>173681.6356932865</v>
+        <v>174976.8019918774</v>
       </c>
       <c r="M3" t="n">
-        <v>651469.7466657992</v>
+        <v>655355.2455615721</v>
       </c>
       <c r="N3" t="n">
-        <v>10483190.267664</v>
+        <v>10549636.406764</v>
       </c>
       <c r="O3" t="n">
-        <v>10075817.109661</v>
+        <v>10142263.248761</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01656763172838877</v>
+        <v>0.0165860504803454</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01723747402349683</v>
+        <v>0.01725224416880058</v>
       </c>
     </row>
     <row r="4">
@@ -634,49 +634,49 @@
         <v>104</v>
       </c>
       <c r="C4" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D4" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8640776699029126</v>
+        <v>0.8653846153846154</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8557692307692307</v>
+        <v>0.8653846153846154</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0970994315717198</v>
+        <v>0.09672223673719484</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08319085971041408</v>
+        <v>0.08370193563795707</v>
       </c>
       <c r="I4" t="n">
-        <v>509184.1566766572</v>
+        <v>511686.5069044705</v>
       </c>
       <c r="J4" t="n">
-        <v>182293.2859515694</v>
+        <v>183544.4610654761</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>182293.2859515694</v>
+        <v>183544.4610654761</v>
       </c>
       <c r="M4" t="n">
-        <v>691477.4426282267</v>
+        <v>695230.9679699468</v>
       </c>
       <c r="N4" t="n">
-        <v>10842468.31879392</v>
+        <v>10895668.70626692</v>
       </c>
       <c r="O4" t="n">
-        <v>10434123.96605083</v>
+        <v>10487324.35352383</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01681289542120121</v>
+        <v>0.01684563527155573</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01747087599732293</v>
+        <v>0.01750155281540459</v>
       </c>
     </row>
     <row r="5">
@@ -699,37 +699,37 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09511055620966978</v>
+        <v>0.09467907571674584</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08242914871504717</v>
+        <v>0.08205519895451308</v>
       </c>
       <c r="I5" t="n">
-        <v>526523.2199554271</v>
+        <v>524337.9468682207</v>
       </c>
       <c r="J5" t="n">
-        <v>188388.8538193516</v>
+        <v>187296.2172757485</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>188388.8538193516</v>
+        <v>187296.2172757485</v>
       </c>
       <c r="M5" t="n">
-        <v>714912.0737747787</v>
+        <v>711634.1641439691</v>
       </c>
       <c r="N5" t="n">
-        <v>11280831.86545774</v>
+        <v>11320413.25095493</v>
       </c>
       <c r="O5" t="n">
-        <v>10870137.18213236</v>
+        <v>10909718.56762955</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01669990795591983</v>
+        <v>0.01654499823669858</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01733086258828576</v>
+        <v>0.01716783215943617</v>
       </c>
     </row>
     <row r="6">
@@ -740,49 +740,49 @@
         <v>106</v>
       </c>
       <c r="C6" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D6" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8679245283018868</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8679245283018868</v>
+        <v>0.8584905660377359</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09510156385804072</v>
+        <v>0.09657166851730856</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08254097995226177</v>
+        <v>0.08300020599127433</v>
       </c>
       <c r="I6" t="n">
-        <v>551974.7101267558</v>
+        <v>550804.6883894347</v>
       </c>
       <c r="J6" t="n">
-        <v>198053.4162202651</v>
+        <v>197468.4053516046</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>198053.4162202651</v>
+        <v>197468.4053516046</v>
       </c>
       <c r="M6" t="n">
-        <v>750028.1263470209</v>
+        <v>748273.0937410393</v>
       </c>
       <c r="N6" t="n">
-        <v>11729815.62832147</v>
+        <v>11614789.51518358</v>
       </c>
       <c r="O6" t="n">
-        <v>11315350.10449633</v>
+        <v>11200323.99135843</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01688461460059679</v>
+        <v>0.01700146223859344</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01750307453072668</v>
+        <v>0.01763059760628002</v>
       </c>
     </row>
   </sheetData>

--- a/projection_results_AIP_New_Hires.xlsx
+++ b/projection_results_AIP_New_Hires.xlsx
@@ -528,49 +528,49 @@
         <v>102</v>
       </c>
       <c r="C2" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D2" t="n">
         <v>87</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8613861386138614</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="F2" t="n">
         <v>0.8529411764705882</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09847934560753153</v>
+        <v>0.09823822539669926</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08409512811622789</v>
+        <v>0.08379142754424349</v>
       </c>
       <c r="I2" t="n">
-        <v>461526.6616369847</v>
+        <v>461915.3705097084</v>
       </c>
       <c r="J2" t="n">
-        <v>168149.3310194924</v>
+        <v>168343.6854558542</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>168149.3310194924</v>
+        <v>168343.6854558542</v>
       </c>
       <c r="M2" t="n">
-        <v>629675.9926564771</v>
+        <v>630259.0559655628</v>
       </c>
       <c r="N2" t="n">
-        <v>10098564.6888</v>
+        <v>10165519.7688</v>
       </c>
       <c r="O2" t="n">
-        <v>9690823.758699998</v>
+        <v>9757778.838699998</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01665081486342128</v>
+        <v>0.01656026344786958</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01735139707483951</v>
+        <v>0.01725225466150062</v>
       </c>
     </row>
     <row r="3">
@@ -578,52 +578,52 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C3" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D3" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8640776699029126</v>
+        <v>0.8584905660377359</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8640776699029126</v>
+        <v>0.8584905660377359</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09664744730659888</v>
+        <v>0.09607362778140782</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08351090107075052</v>
+        <v>0.08247830309535956</v>
       </c>
       <c r="I3" t="n">
-        <v>480378.4435696948</v>
+        <v>493240.0544632261</v>
       </c>
       <c r="J3" t="n">
-        <v>174976.8019918774</v>
+        <v>181407.607438643</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>174976.8019918774</v>
+        <v>181407.607438643</v>
       </c>
       <c r="M3" t="n">
-        <v>655355.2455615721</v>
+        <v>674647.6619018689</v>
       </c>
       <c r="N3" t="n">
-        <v>10549636.406764</v>
+        <v>10801469.936564</v>
       </c>
       <c r="O3" t="n">
-        <v>10142263.248761</v>
+        <v>10394096.778561</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0165860504803454</v>
+        <v>0.01679471484011274</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01725224416880058</v>
+        <v>0.01745294577329862</v>
       </c>
     </row>
     <row r="4">
@@ -631,52 +631,52 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C4" t="n">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D4" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8653846153846154</v>
+        <v>0.8623853211009175</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8653846153846154</v>
+        <v>0.8623853211009175</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09672223673719484</v>
+        <v>0.09422337361318721</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08370193563795707</v>
+        <v>0.08125685430862017</v>
       </c>
       <c r="I4" t="n">
-        <v>511686.5069044705</v>
+        <v>526514.418027284</v>
       </c>
       <c r="J4" t="n">
-        <v>183544.4610654761</v>
+        <v>190958.4166268829</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>183544.4610654761</v>
+        <v>190958.4166268829</v>
       </c>
       <c r="M4" t="n">
-        <v>695230.9679699468</v>
+        <v>717472.8346541669</v>
       </c>
       <c r="N4" t="n">
-        <v>10895668.70626692</v>
+        <v>11345286.94306092</v>
       </c>
       <c r="O4" t="n">
-        <v>10487324.35352383</v>
+        <v>10936942.59031783</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01684563527155573</v>
+        <v>0.01683151934237134</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01750155281540459</v>
+        <v>0.017459945048622</v>
       </c>
     </row>
     <row r="5">
@@ -684,52 +684,52 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C5" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D5" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09467907571674584</v>
+        <v>0.09389805491180749</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08205519895451308</v>
+        <v>0.08109377469656102</v>
       </c>
       <c r="I5" t="n">
-        <v>524337.9468682207</v>
+        <v>548242.7938357895</v>
       </c>
       <c r="J5" t="n">
-        <v>187296.2172757485</v>
+        <v>199248.6407595329</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>187296.2172757485</v>
+        <v>199248.6407595329</v>
       </c>
       <c r="M5" t="n">
-        <v>711634.1641439691</v>
+        <v>747491.4345953225</v>
       </c>
       <c r="N5" t="n">
-        <v>11320413.25095493</v>
+        <v>11786101.98315275</v>
       </c>
       <c r="O5" t="n">
-        <v>10909718.56762955</v>
+        <v>11375407.29982737</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01654499823669858</v>
+        <v>0.016905389164657</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01716783215943617</v>
+        <v>0.01751573684421451</v>
       </c>
     </row>
     <row r="6">
@@ -737,52 +737,52 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C6" t="n">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D6" t="n">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8584905660377359</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09657166851730856</v>
+        <v>0.09400854608248253</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08300020599127433</v>
+        <v>0.08141811580357862</v>
       </c>
       <c r="I6" t="n">
-        <v>550804.6883894347</v>
+        <v>574500.8661924924</v>
       </c>
       <c r="J6" t="n">
-        <v>197468.4053516046</v>
+        <v>209316.4942531334</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>197468.4053516046</v>
+        <v>209316.4942531334</v>
       </c>
       <c r="M6" t="n">
-        <v>748273.0937410393</v>
+        <v>783817.3604456257</v>
       </c>
       <c r="N6" t="n">
-        <v>11614789.51518358</v>
+        <v>12106775.67824733</v>
       </c>
       <c r="O6" t="n">
-        <v>11200323.99135843</v>
+        <v>11692310.15442219</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01700146223859344</v>
+        <v>0.01728920232900819</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01763059760628002</v>
+        <v>0.01790206481770133</v>
       </c>
     </row>
   </sheetData>

--- a/projection_results_AIP_New_Hires.xlsx
+++ b/projection_results_AIP_New_Hires.xlsx
@@ -525,52 +525,52 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>102</v>
+        <v>9478</v>
       </c>
       <c r="C2" t="n">
-        <v>102</v>
+        <v>9454</v>
       </c>
       <c r="D2" t="n">
-        <v>87</v>
+        <v>8552</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8529411764705882</v>
+        <v>0.9045906494605458</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8529411764705882</v>
+        <v>0.9023000633044946</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09823822539669926</v>
+        <v>0.09509490102641401</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08379142754424349</v>
+        <v>0.08582945701391566</v>
       </c>
       <c r="I2" t="n">
-        <v>461915.3705097084</v>
+        <v>41871748.61682985</v>
       </c>
       <c r="J2" t="n">
-        <v>168343.6854558542</v>
+        <v>14736210.06775092</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>168343.6854558542</v>
+        <v>14736210.06775092</v>
       </c>
       <c r="M2" t="n">
-        <v>630259.0559655628</v>
+        <v>56607958.68458077</v>
       </c>
       <c r="N2" t="n">
-        <v>10165519.7688</v>
+        <v>817193256.2772001</v>
       </c>
       <c r="O2" t="n">
-        <v>9757778.838699998</v>
+        <v>797814518.5032001</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01656026344786958</v>
+        <v>0.01803271130122035</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01725225466150062</v>
+        <v>0.0184707218607627</v>
       </c>
     </row>
     <row r="3">
@@ -578,52 +578,52 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>106</v>
+        <v>9764</v>
       </c>
       <c r="C3" t="n">
-        <v>106</v>
+        <v>9740</v>
       </c>
       <c r="D3" t="n">
-        <v>91</v>
+        <v>8841</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8584905660377359</v>
+        <v>0.907700205338809</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8584905660377359</v>
+        <v>0.9054690700532568</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09607362778140782</v>
+        <v>0.09318518303774719</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08247830309535956</v>
+        <v>0.08440088111805848</v>
       </c>
       <c r="I3" t="n">
-        <v>493240.0544632261</v>
+        <v>44278388.44033591</v>
       </c>
       <c r="J3" t="n">
-        <v>181407.607438643</v>
+        <v>15669468.00696756</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>181407.607438643</v>
+        <v>15669468.00696756</v>
       </c>
       <c r="M3" t="n">
-        <v>674647.6619018689</v>
+        <v>59947856.44730347</v>
       </c>
       <c r="N3" t="n">
-        <v>10801469.936564</v>
+        <v>866217456.3869131</v>
       </c>
       <c r="O3" t="n">
-        <v>10394096.778561</v>
+        <v>846193941.7348431</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01679471484011274</v>
+        <v>0.01808953155057231</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01745294577329862</v>
+        <v>0.01851758472158575</v>
       </c>
     </row>
     <row r="4">
@@ -631,52 +631,52 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>109</v>
+        <v>10042</v>
       </c>
       <c r="C4" t="n">
-        <v>109</v>
+        <v>10027</v>
       </c>
       <c r="D4" t="n">
-        <v>94</v>
+        <v>9131</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8623853211009175</v>
+        <v>0.910641268574848</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8623853211009175</v>
+        <v>0.9092810197171878</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09422337361318721</v>
+        <v>0.0918294128663809</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08125685430862017</v>
+        <v>0.08351367943466678</v>
       </c>
       <c r="I4" t="n">
-        <v>526514.418027284</v>
+        <v>47517624.66176366</v>
       </c>
       <c r="J4" t="n">
-        <v>190958.4166268829</v>
+        <v>16969014.67242942</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190958.4166268829</v>
+        <v>16969014.67242942</v>
       </c>
       <c r="M4" t="n">
-        <v>717472.8346541669</v>
+        <v>64486639.33419308</v>
       </c>
       <c r="N4" t="n">
-        <v>11345286.94306092</v>
+        <v>926735018.4242668</v>
       </c>
       <c r="O4" t="n">
-        <v>10936942.59031783</v>
+        <v>906466055.975973</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01683151934237134</v>
+        <v>0.01831053573575102</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.017459945048622</v>
+        <v>0.0187199670197901</v>
       </c>
     </row>
     <row r="5">
@@ -684,52 +684,52 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>110</v>
+        <v>10325</v>
       </c>
       <c r="C5" t="n">
-        <v>110</v>
+        <v>10298</v>
       </c>
       <c r="D5" t="n">
-        <v>95</v>
+        <v>9404</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.9131870266071082</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.9107990314769976</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09389805491180749</v>
+        <v>0.09067876875608344</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08109377469656102</v>
+        <v>0.08261628487963281</v>
       </c>
       <c r="I5" t="n">
-        <v>548242.7938357895</v>
+        <v>50835217.98122857</v>
       </c>
       <c r="J5" t="n">
-        <v>199248.6407595329</v>
+        <v>18294583.82994707</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>199248.6407595329</v>
+        <v>18294583.82994707</v>
       </c>
       <c r="M5" t="n">
-        <v>747491.4345953225</v>
+        <v>69129801.81117564</v>
       </c>
       <c r="N5" t="n">
-        <v>11786101.98315275</v>
+        <v>982952967.4198503</v>
       </c>
       <c r="O5" t="n">
-        <v>11375407.29982737</v>
+        <v>962400924.913815</v>
       </c>
       <c r="P5" t="n">
-        <v>0.016905389164657</v>
+        <v>0.01861186082785676</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01751573684421451</v>
+        <v>0.01900931655025725</v>
       </c>
     </row>
     <row r="6">
@@ -737,52 +737,52 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>112</v>
+        <v>10639</v>
       </c>
       <c r="C6" t="n">
-        <v>112</v>
+        <v>10615</v>
       </c>
       <c r="D6" t="n">
-        <v>97</v>
+        <v>9724</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8660714285714286</v>
+        <v>0.9160621761658031</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8660714285714286</v>
+        <v>0.9139956762853652</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09400854608248253</v>
+        <v>0.08959285875955238</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08141811580357862</v>
+        <v>0.08191004404341455</v>
       </c>
       <c r="I6" t="n">
-        <v>574500.8661924924</v>
+        <v>54617108.1983126</v>
       </c>
       <c r="J6" t="n">
-        <v>209316.4942531334</v>
+        <v>19814040.63745773</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>209316.4942531334</v>
+        <v>19814040.63745773</v>
       </c>
       <c r="M6" t="n">
-        <v>783817.3604456257</v>
+        <v>74431148.83577034</v>
       </c>
       <c r="N6" t="n">
-        <v>12106775.67824733</v>
+        <v>1044291442.661237</v>
       </c>
       <c r="O6" t="n">
-        <v>11692310.15442219</v>
+        <v>1022775193.783701</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01728920232900819</v>
+        <v>0.01897366944515441</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01790206481770133</v>
+        <v>0.01937282088760557</v>
       </c>
     </row>
   </sheetData>
